--- a/cookies/cookies_data_chrome_webdriver.xlsx
+++ b/cookies/cookies_data_chrome_webdriver.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>domain</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>this is a secure sample cookie</t>
+  </si>
+  <si>
+    <t>session</t>
   </si>
 </sst>
 </file>
@@ -482,6 +485,9 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -506,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="H3">
-        <v>1735673100</v>
+        <v>1738815249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -532,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>1735673037</v>
+        <v>1736828049</v>
       </c>
     </row>
   </sheetData>

--- a/cookies/cookies_data_chrome_webdriver.xlsx
+++ b/cookies/cookies_data_chrome_webdriver.xlsx
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="H3">
-        <v>1738815249</v>
+        <v>1738838343</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>1736828049</v>
+        <v>1736851143</v>
       </c>
     </row>
   </sheetData>
